--- a/dane2.xlsx
+++ b/dane2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D7B520-8371-4051-83DE-2177DD56A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{938A610A-2D8E-4A11-9971-F04316A46B5D}"/>
+    <workbookView xWindow="0" yWindow="1272" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Imie</t>
   </si>
@@ -94,6 +94,177 @@
   </si>
   <si>
     <t>vujvuv</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>doma</t>
+  </si>
+  <si>
+    <t>dgrf</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Pokazny</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>yjfyy</t>
+  </si>
+  <si>
+    <t>sdhf</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domao</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>dominika</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>vujvuv</t>
+  </si>
+  <si>
+    <t>sgdhf</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>doma</t>
+  </si>
+  <si>
+    <t>dgrf</t>
+  </si>
+  <si>
+    <t>sfgdhfj</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Pokazny</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>yjfyy</t>
+  </si>
+  <si>
+    <t>sdhf</t>
+  </si>
+  <si>
+    <t>gdhfjgh</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domao</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>dominika</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>vujvuv</t>
+  </si>
+  <si>
+    <t>sgdhf</t>
+  </si>
+  <si>
+    <t>sgdfhghkj</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -118,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,12 +297,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -446,110 +621,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91E1CBB-85C7-4380-8D26-C55D8B5522C8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.82421875" customWidth="true"/>
+    <col min="2" max="2" width="10.37890625" customWidth="true"/>
+    <col min="3" max="3" width="9.6015625" customWidth="true"/>
+    <col min="4" max="4" width="5.15625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+    <row r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/dane2.xlsx
+++ b/dane2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>Imie</t>
   </si>
@@ -250,6 +250,105 @@
   </si>
   <si>
     <t>sgdfhghkj</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>doma</t>
+  </si>
+  <si>
+    <t>dgrf</t>
+  </si>
+  <si>
+    <t>sfgdhfj</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Pokazny</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>yjfyy</t>
+  </si>
+  <si>
+    <t>sdhf</t>
+  </si>
+  <si>
+    <t>gdhfjgh</t>
+  </si>
+  <si>
+    <t>gfhj</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domao</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>dominika</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>vujvuv</t>
+  </si>
+  <si>
+    <t>sgdhf</t>
+  </si>
+  <si>
+    <t>sgdfhghkj</t>
+  </si>
+  <si>
+    <t>aaaade</t>
   </si>
   <si>
     <t>P_e_</t>
@@ -289,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -299,14 +398,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -621,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91E1CBB-85C7-4380-8D26-C55D8B5522C8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -637,128 +738,142 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/dane2.xlsx
+++ b/dane2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="146">
   <si>
     <t>Imie</t>
   </si>
@@ -349,6 +349,114 @@
   </si>
   <si>
     <t>aaaade</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>doma</t>
+  </si>
+  <si>
+    <t>dgrf</t>
+  </si>
+  <si>
+    <t>sfgdhfj</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sdkssg</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Pokazny</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>yjfyy</t>
+  </si>
+  <si>
+    <t>sdhf</t>
+  </si>
+  <si>
+    <t>gdhfjgh</t>
+  </si>
+  <si>
+    <t>gfhj</t>
+  </si>
+  <si>
+    <t>egdhj</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>domao</t>
+  </si>
+  <si>
+    <t>piotr</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>dominika</t>
+  </si>
+  <si>
+    <t>dominikaa</t>
+  </si>
+  <si>
+    <t>vujvuv</t>
+  </si>
+  <si>
+    <t>sgdhf</t>
+  </si>
+  <si>
+    <t>sgdfhghkj</t>
+  </si>
+  <si>
+    <t>aaaade</t>
+  </si>
+  <si>
+    <t>afsghdj</t>
   </si>
   <si>
     <t>P_e_</t>
@@ -388,7 +496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -399,15 +507,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -722,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91E1CBB-85C7-4380-8D26-C55D8B5522C8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -738,142 +848,156 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
